--- a/Variable Dictionary.xlsx
+++ b/Variable Dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaelch\Downloads\diversity_map\diversity_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilleb\Documents\GitHub\Diversity-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Diversity Map Variable Name Key</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>grouping_fxn()</t>
+  </si>
+  <si>
+    <t>ACS variable labels and category names</t>
+  </si>
+  <si>
+    <t>div_index_fxn()</t>
+  </si>
+  <si>
+    <t>Div calculated for tract and neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     group_calc_fxn()</t>
+  </si>
+  <si>
+    <t>Div calculated by category</t>
+  </si>
+  <si>
+    <t>Specifically calculates div_prop at each group level and then sums over categories</t>
+  </si>
+  <si>
+    <t>Grouping and categorization designations</t>
   </si>
 </sst>
 </file>
@@ -206,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:E21" totalsRowShown="0">
-  <autoFilter ref="B3:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:E23" totalsRowShown="0">
+  <autoFilter ref="B3:E23"/>
   <sortState ref="B4:E13">
     <sortCondition ref="D3:D14"/>
   </sortState>
@@ -484,16 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -666,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -677,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -686,6 +713,53 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
